--- a/Code/Results/Cases/Case_3_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009039796857647</v>
+        <v>1.031523182197974</v>
       </c>
       <c r="D2">
-        <v>1.025073106789212</v>
+        <v>1.035472440590324</v>
       </c>
       <c r="E2">
-        <v>1.022791389384569</v>
+        <v>1.041517427706352</v>
       </c>
       <c r="F2">
-        <v>1.030441715566627</v>
+        <v>1.053563000024011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049208362441658</v>
+        <v>1.038601456581881</v>
       </c>
       <c r="J2">
-        <v>1.03095345044369</v>
+        <v>1.036658439809023</v>
       </c>
       <c r="K2">
-        <v>1.036193844445986</v>
+        <v>1.038268947063911</v>
       </c>
       <c r="L2">
-        <v>1.033942079183477</v>
+        <v>1.044296718287106</v>
       </c>
       <c r="M2">
-        <v>1.041492634119039</v>
+        <v>1.056308623882265</v>
       </c>
       <c r="N2">
-        <v>1.014233488958624</v>
+        <v>1.016216545043877</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012689511086597</v>
+        <v>1.032295380322781</v>
       </c>
       <c r="D3">
-        <v>1.027669126230824</v>
+        <v>1.0360385339644</v>
       </c>
       <c r="E3">
-        <v>1.025949870163333</v>
+        <v>1.042240567107563</v>
       </c>
       <c r="F3">
-        <v>1.034274752919294</v>
+        <v>1.054452511640044</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050346610305221</v>
+        <v>1.038787632638374</v>
       </c>
       <c r="J3">
-        <v>1.032840124782229</v>
+        <v>1.037073451301886</v>
       </c>
       <c r="K3">
-        <v>1.037959804782119</v>
+        <v>1.03864508943831</v>
       </c>
       <c r="L3">
-        <v>1.036261144381167</v>
+        <v>1.044830731313526</v>
       </c>
       <c r="M3">
-        <v>1.044487088624581</v>
+        <v>1.057011009207023</v>
       </c>
       <c r="N3">
-        <v>1.014862354656548</v>
+        <v>1.016354433564979</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015008738951663</v>
+        <v>1.032795615208217</v>
       </c>
       <c r="D4">
-        <v>1.029320954668314</v>
+        <v>1.036405233761601</v>
       </c>
       <c r="E4">
-        <v>1.027962353344518</v>
+        <v>1.042709422357419</v>
       </c>
       <c r="F4">
-        <v>1.036716693323499</v>
+        <v>1.055029293483402</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051060250814329</v>
+        <v>1.038907047252096</v>
       </c>
       <c r="J4">
-        <v>1.034036158604655</v>
+        <v>1.03734187632666</v>
       </c>
       <c r="K4">
-        <v>1.03907792635025</v>
+        <v>1.03888817409664</v>
       </c>
       <c r="L4">
-        <v>1.03773461602323</v>
+        <v>1.045176537192372</v>
       </c>
       <c r="M4">
-        <v>1.046391290447191</v>
+        <v>1.05746606878048</v>
       </c>
       <c r="N4">
-        <v>1.01526098385268</v>
+        <v>1.016443599766802</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015973888179787</v>
+        <v>1.033006048847242</v>
       </c>
       <c r="D5">
-        <v>1.030008849344064</v>
+        <v>1.036559488173092</v>
       </c>
       <c r="E5">
-        <v>1.028801125328032</v>
+        <v>1.042906751182873</v>
       </c>
       <c r="F5">
-        <v>1.037734390500839</v>
+        <v>1.05527205978837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051354881043813</v>
+        <v>1.03895699603791</v>
       </c>
       <c r="J5">
-        <v>1.03453317895496</v>
+        <v>1.037454693362121</v>
       </c>
       <c r="K5">
-        <v>1.039542228343346</v>
+        <v>1.038990292682743</v>
       </c>
       <c r="L5">
-        <v>1.038347734458401</v>
+        <v>1.045321975621784</v>
       </c>
       <c r="M5">
-        <v>1.047184032238094</v>
+        <v>1.057657510328673</v>
       </c>
       <c r="N5">
-        <v>1.015426627775781</v>
+        <v>1.01648107116505</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016135371397945</v>
+        <v>1.033041389438484</v>
       </c>
       <c r="D6">
-        <v>1.03012397132325</v>
+        <v>1.036585393615662</v>
       </c>
       <c r="E6">
-        <v>1.028941538096391</v>
+        <v>1.042939896527572</v>
       </c>
       <c r="F6">
-        <v>1.037904752476138</v>
+        <v>1.055312838101834</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051404037672413</v>
+        <v>1.038965367791209</v>
       </c>
       <c r="J6">
-        <v>1.034616295101422</v>
+        <v>1.03747363411023</v>
       </c>
       <c r="K6">
-        <v>1.039619852719056</v>
+        <v>1.03900743445408</v>
       </c>
       <c r="L6">
-        <v>1.038450313227991</v>
+        <v>1.045346398944821</v>
       </c>
       <c r="M6">
-        <v>1.047316686639119</v>
+        <v>1.057689662042358</v>
       </c>
       <c r="N6">
-        <v>1.015454327631678</v>
+        <v>1.016487361939269</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015021673664086</v>
+        <v>1.032798426505043</v>
       </c>
       <c r="D7">
-        <v>1.029330171813895</v>
+        <v>1.036407294550269</v>
       </c>
       <c r="E7">
-        <v>1.02797358937451</v>
+        <v>1.042712058204655</v>
       </c>
       <c r="F7">
-        <v>1.036730326438604</v>
+        <v>1.05503253621267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051064208712313</v>
+        <v>1.038907715665857</v>
       </c>
       <c r="J7">
-        <v>1.034042822395351</v>
+        <v>1.037343383908351</v>
       </c>
       <c r="K7">
-        <v>1.039084152830099</v>
+        <v>1.038889538903365</v>
       </c>
       <c r="L7">
-        <v>1.037742833198393</v>
+        <v>1.045178480307477</v>
       </c>
       <c r="M7">
-        <v>1.046401913412166</v>
+        <v>1.057468626305555</v>
       </c>
       <c r="N7">
-        <v>1.015263204758958</v>
+        <v>1.016444100517326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01028218986351</v>
+        <v>1.031784030832346</v>
       </c>
       <c r="D8">
-        <v>1.02595633462969</v>
+        <v>1.035663670670884</v>
       </c>
       <c r="E8">
-        <v>1.023865414833481</v>
+        <v>1.041761621149111</v>
       </c>
       <c r="F8">
-        <v>1.031745204351206</v>
+        <v>1.053863363202445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049597834247945</v>
+        <v>1.03866459332563</v>
       </c>
       <c r="J8">
-        <v>1.03159627462898</v>
+        <v>1.036798717964893</v>
       </c>
       <c r="K8">
-        <v>1.036795824813334</v>
+        <v>1.038396128442641</v>
       </c>
       <c r="L8">
-        <v>1.034731533586539</v>
+        <v>1.044477134976894</v>
       </c>
       <c r="M8">
-        <v>1.042511673409823</v>
+        <v>1.056545879338463</v>
       </c>
       <c r="N8">
-        <v>1.014447760802522</v>
+        <v>1.016263156622754</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001592292566812</v>
+        <v>1.030000990274164</v>
       </c>
       <c r="D9">
-        <v>1.019789386129218</v>
+        <v>1.0343564512138</v>
       </c>
       <c r="E9">
-        <v>1.016377033326112</v>
+        <v>1.040094081340704</v>
       </c>
       <c r="F9">
-        <v>1.022654738453462</v>
+        <v>1.051812476763757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046834226886319</v>
+        <v>1.038228147867104</v>
       </c>
       <c r="J9">
-        <v>1.027088947906174</v>
+        <v>1.035838121340164</v>
       </c>
       <c r="K9">
-        <v>1.03256935103841</v>
+        <v>1.037524399796866</v>
       </c>
       <c r="L9">
-        <v>1.029209877325287</v>
+        <v>1.043243361284975</v>
       </c>
       <c r="M9">
-        <v>1.035390648551985</v>
+        <v>1.054924320573334</v>
       </c>
       <c r="N9">
-        <v>1.012945262015521</v>
+        <v>1.015943894657711</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9955513950238397</v>
+        <v>1.028815400006235</v>
       </c>
       <c r="D10">
-        <v>1.015517816768106</v>
+        <v>1.033487192624611</v>
       </c>
       <c r="E10">
-        <v>1.011202848800252</v>
+        <v>1.03898737911528</v>
       </c>
       <c r="F10">
-        <v>1.016369940425284</v>
+        <v>1.050451625977938</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04486451821037</v>
+        <v>1.037931834137077</v>
       </c>
       <c r="J10">
-        <v>1.02394263223177</v>
+        <v>1.035197244562402</v>
       </c>
       <c r="K10">
-        <v>1.029612432903561</v>
+        <v>1.036941793253258</v>
       </c>
       <c r="L10">
-        <v>1.02537273605606</v>
+        <v>1.042422337981934</v>
       </c>
       <c r="M10">
-        <v>1.030449789727056</v>
+        <v>1.053846372954437</v>
       </c>
       <c r="N10">
-        <v>1.011896418684589</v>
+        <v>1.015730800878566</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9928720915938021</v>
+        <v>1.028302785363743</v>
       </c>
       <c r="D11">
-        <v>1.013627530018267</v>
+        <v>1.03311134401623</v>
       </c>
       <c r="E11">
-        <v>1.008915822770057</v>
+        <v>1.038509373047754</v>
       </c>
       <c r="F11">
-        <v>1.013590872884116</v>
+        <v>1.049863908247345</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043979868557357</v>
+        <v>1.037802268751735</v>
       </c>
       <c r="J11">
-        <v>1.022544436005103</v>
+        <v>1.034919640301177</v>
       </c>
       <c r="K11">
-        <v>1.028296947060811</v>
+        <v>1.03668918943804</v>
       </c>
       <c r="L11">
-        <v>1.023671535904745</v>
+        <v>1.042067198800198</v>
       </c>
       <c r="M11">
-        <v>1.028260957281478</v>
+        <v>1.053380365597902</v>
       </c>
       <c r="N11">
-        <v>1.011430335028589</v>
+        <v>1.01563847474976</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9918668962625512</v>
+        <v>1.028112492557862</v>
       </c>
       <c r="D12">
-        <v>1.012919045149937</v>
+        <v>1.032971821035224</v>
       </c>
       <c r="E12">
-        <v>1.008059016193291</v>
+        <v>1.038332003080292</v>
       </c>
       <c r="F12">
-        <v>1.012549532548465</v>
+        <v>1.049645837144162</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043646359143751</v>
+        <v>1.037753954008915</v>
       </c>
       <c r="J12">
-        <v>1.02201949719595</v>
+        <v>1.034816511932354</v>
       </c>
       <c r="K12">
-        <v>1.027802852608496</v>
+        <v>1.036595312654923</v>
       </c>
       <c r="L12">
-        <v>1.023033429912345</v>
+        <v>1.041935341318129</v>
       </c>
       <c r="M12">
-        <v>1.027440189046389</v>
+        <v>1.053207384386017</v>
       </c>
       <c r="N12">
-        <v>1.011255352385579</v>
+        <v>1.015604172894942</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9920829730595776</v>
+        <v>1.028153305772589</v>
       </c>
       <c r="D13">
-        <v>1.013071308793434</v>
+        <v>1.033001745360237</v>
       </c>
       <c r="E13">
-        <v>1.008243139707631</v>
+        <v>1.038370041237835</v>
       </c>
       <c r="F13">
-        <v>1.012773320741881</v>
+        <v>1.049692603538865</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043718122630352</v>
+        <v>1.037764326196659</v>
       </c>
       <c r="J13">
-        <v>1.022132354566591</v>
+        <v>1.034838633920582</v>
       </c>
       <c r="K13">
-        <v>1.027909087955593</v>
+        <v>1.036615451716479</v>
       </c>
       <c r="L13">
-        <v>1.02317059059886</v>
+        <v>1.041963622590598</v>
       </c>
       <c r="M13">
-        <v>1.027616602053406</v>
+        <v>1.053244484224776</v>
       </c>
       <c r="N13">
-        <v>1.011292971961777</v>
+        <v>1.015611531105709</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9927892080770511</v>
+        <v>1.0282870533424</v>
       </c>
       <c r="D14">
-        <v>1.013569097361093</v>
+        <v>1.033099809280147</v>
       </c>
       <c r="E14">
-        <v>1.008845149686847</v>
+        <v>1.038494707850992</v>
       </c>
       <c r="F14">
-        <v>1.013504982805721</v>
+        <v>1.049845877647784</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043952401591998</v>
+        <v>1.037798278878205</v>
       </c>
       <c r="J14">
-        <v>1.022501159585982</v>
+        <v>1.034911115951773</v>
       </c>
       <c r="K14">
-        <v>1.028256217655269</v>
+        <v>1.036681430535302</v>
       </c>
       <c r="L14">
-        <v>1.02361891787513</v>
+        <v>1.042056298247477</v>
       </c>
       <c r="M14">
-        <v>1.028193272068608</v>
+        <v>1.053366064567171</v>
       </c>
       <c r="N14">
-        <v>1.011415909217146</v>
+        <v>1.015635639504598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9932230065646401</v>
+        <v>1.028369474941195</v>
       </c>
       <c r="D15">
-        <v>1.01387495279152</v>
+        <v>1.033160240875052</v>
       </c>
       <c r="E15">
-        <v>1.009215090699329</v>
+        <v>1.038571543343972</v>
       </c>
       <c r="F15">
-        <v>1.013954569609542</v>
+        <v>1.049940345880041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044096093478804</v>
+        <v>1.037819173307809</v>
       </c>
       <c r="J15">
-        <v>1.022727645951252</v>
+        <v>1.034955772735394</v>
       </c>
       <c r="K15">
-        <v>1.028469365833177</v>
+        <v>1.036722075878105</v>
       </c>
       <c r="L15">
-        <v>1.023894317514638</v>
+        <v>1.042113406380322</v>
       </c>
       <c r="M15">
-        <v>1.028547542359661</v>
+        <v>1.053440989478273</v>
       </c>
       <c r="N15">
-        <v>1.01149140660927</v>
+        <v>1.015650492462411</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9957278360206099</v>
+        <v>1.028849436590827</v>
       </c>
       <c r="D16">
-        <v>1.015642391983955</v>
+        <v>1.033512148125295</v>
       </c>
       <c r="E16">
-        <v>1.011353624204688</v>
+        <v>1.039019128325511</v>
       </c>
       <c r="F16">
-        <v>1.016553128409848</v>
+        <v>1.050490663487223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044922548672467</v>
+        <v>1.037940406499394</v>
       </c>
       <c r="J16">
-        <v>1.024034653982206</v>
+        <v>1.035215666238569</v>
       </c>
       <c r="K16">
-        <v>1.029698981604089</v>
+        <v>1.036958550866707</v>
       </c>
       <c r="L16">
-        <v>1.025484782543245</v>
+        <v>1.042445915312176</v>
       </c>
       <c r="M16">
-        <v>1.030593987823608</v>
+        <v>1.053877316308328</v>
       </c>
       <c r="N16">
-        <v>1.011927094234285</v>
+        <v>1.01573692713778</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9972817348806294</v>
+        <v>1.02915070696475</v>
       </c>
       <c r="D17">
-        <v>1.016740007448897</v>
+        <v>1.033733037781615</v>
       </c>
       <c r="E17">
-        <v>1.012682390256415</v>
+        <v>1.039300210120236</v>
       </c>
       <c r="F17">
-        <v>1.018167409244223</v>
+        <v>1.0508362768824</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045432364206872</v>
+        <v>1.038016116249614</v>
       </c>
       <c r="J17">
-        <v>1.024844774273871</v>
+        <v>1.03537866460556</v>
       </c>
       <c r="K17">
-        <v>1.030460754789706</v>
+        <v>1.037106797589706</v>
       </c>
       <c r="L17">
-        <v>1.02647164622536</v>
+        <v>1.042654589343767</v>
       </c>
       <c r="M17">
-        <v>1.031864223726131</v>
+        <v>1.054151214976426</v>
       </c>
       <c r="N17">
-        <v>1.012197150464478</v>
+        <v>1.015791130895387</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9981819962611735</v>
+        <v>1.029326505480147</v>
       </c>
       <c r="D18">
-        <v>1.017376320743388</v>
+        <v>1.033861931545457</v>
       </c>
       <c r="E18">
-        <v>1.013452965238653</v>
+        <v>1.039464276343355</v>
       </c>
       <c r="F18">
-        <v>1.019103452099229</v>
+        <v>1.051038015739451</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045726677204797</v>
+        <v>1.038060154877373</v>
       </c>
       <c r="J18">
-        <v>1.025313861964366</v>
+        <v>1.035473729022516</v>
       </c>
       <c r="K18">
-        <v>1.030901708781311</v>
+        <v>1.037193235338701</v>
       </c>
       <c r="L18">
-        <v>1.027043454310687</v>
+        <v>1.04277634090763</v>
       </c>
       <c r="M18">
-        <v>1.032600385869221</v>
+        <v>1.054311047780813</v>
       </c>
       <c r="N18">
-        <v>1.012353523534608</v>
+        <v>1.015822741681355</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.998487939990789</v>
+        <v>1.029386460489338</v>
       </c>
       <c r="D19">
-        <v>1.017592631422592</v>
+        <v>1.033905889846543</v>
       </c>
       <c r="E19">
-        <v>1.013714961948316</v>
+        <v>1.039520238295248</v>
       </c>
       <c r="F19">
-        <v>1.019421690687156</v>
+        <v>1.051106828584992</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045826516499881</v>
+        <v>1.038075150262034</v>
       </c>
       <c r="J19">
-        <v>1.025473230995251</v>
+        <v>1.03550614183493</v>
       </c>
       <c r="K19">
-        <v>1.031051495705728</v>
+        <v>1.037222702900446</v>
       </c>
       <c r="L19">
-        <v>1.027237786481263</v>
+        <v>1.042817861024634</v>
       </c>
       <c r="M19">
-        <v>1.032850602605285</v>
+        <v>1.054365558852043</v>
       </c>
       <c r="N19">
-        <v>1.012406650259021</v>
+        <v>1.015833519221199</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9971156504107185</v>
+        <v>1.029118375981761</v>
       </c>
       <c r="D20">
-        <v>1.016622649522311</v>
+        <v>1.033709332961406</v>
       </c>
       <c r="E20">
-        <v>1.012540290935682</v>
+        <v>1.03927004069437</v>
       </c>
       <c r="F20">
-        <v>1.017994788028478</v>
+        <v>1.050799180469844</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045377982683239</v>
+        <v>1.038008005880291</v>
       </c>
       <c r="J20">
-        <v>1.024758213476391</v>
+        <v>1.035361177424881</v>
       </c>
       <c r="K20">
-        <v>1.030379374197486</v>
+        <v>1.037090895425682</v>
       </c>
       <c r="L20">
-        <v>1.026366161169414</v>
+        <v>1.042632196908762</v>
       </c>
       <c r="M20">
-        <v>1.031728432454995</v>
+        <v>1.05412182074529</v>
       </c>
       <c r="N20">
-        <v>1.012168295007999</v>
+        <v>1.015785315895101</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9925815186515035</v>
+        <v>1.028247664824559</v>
       </c>
       <c r="D21">
-        <v>1.013422688253075</v>
+        <v>1.033070929568029</v>
       </c>
       <c r="E21">
-        <v>1.008668076904721</v>
+        <v>1.038457991579378</v>
       </c>
       <c r="F21">
-        <v>1.013289780295225</v>
+        <v>1.049800735782151</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043883549017939</v>
+        <v>1.037788285853398</v>
       </c>
       <c r="J21">
-        <v>1.022392711616155</v>
+        <v>1.034889772170307</v>
       </c>
       <c r="K21">
-        <v>1.028154149017537</v>
+        <v>1.036662002745455</v>
       </c>
       <c r="L21">
-        <v>1.02348706994442</v>
+        <v>1.042029005989977</v>
       </c>
       <c r="M21">
-        <v>1.02802367336006</v>
+        <v>1.053330259006526</v>
       </c>
       <c r="N21">
-        <v>1.011379759113334</v>
+        <v>1.015628540394176</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9896727397104897</v>
+        <v>1.027700880991938</v>
       </c>
       <c r="D22">
-        <v>1.011373889542285</v>
+        <v>1.032670026519483</v>
       </c>
       <c r="E22">
-        <v>1.006191043722825</v>
+        <v>1.037948482499082</v>
       </c>
       <c r="F22">
-        <v>1.010278859026594</v>
+        <v>1.049174325581329</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0429154494285</v>
+        <v>1.037649049607318</v>
       </c>
       <c r="J22">
-        <v>1.020872995273499</v>
+        <v>1.034593301856929</v>
       </c>
       <c r="K22">
-        <v>1.026723345354025</v>
+        <v>1.036392061053289</v>
       </c>
       <c r="L22">
-        <v>1.021640844490395</v>
+        <v>1.041650086593313</v>
       </c>
       <c r="M22">
-        <v>1.025649403329723</v>
+        <v>1.052833237070878</v>
       </c>
       <c r="N22">
-        <v>1.010873187411824</v>
+        <v>1.015529924399315</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9912203868181246</v>
+        <v>1.027990677620708</v>
       </c>
       <c r="D23">
-        <v>1.012463572905267</v>
+        <v>1.032882506068725</v>
       </c>
       <c r="E23">
-        <v>1.007508293413849</v>
+        <v>1.03821848191305</v>
       </c>
       <c r="F23">
-        <v>1.011880139979885</v>
+        <v>1.049506268657707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043431406891529</v>
+        <v>1.037722964368406</v>
       </c>
       <c r="J23">
-        <v>1.021681771176545</v>
+        <v>1.034750473446503</v>
       </c>
       <c r="K23">
-        <v>1.02748491327778</v>
+        <v>1.036535188343518</v>
       </c>
       <c r="L23">
-        <v>1.022623062436933</v>
+        <v>1.04185092707828</v>
       </c>
       <c r="M23">
-        <v>1.026912418549688</v>
+        <v>1.053096654219923</v>
       </c>
       <c r="N23">
-        <v>1.011142776386853</v>
+        <v>1.01558220671725</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9971907156580987</v>
+        <v>1.029132984737207</v>
       </c>
       <c r="D24">
-        <v>1.016675690575525</v>
+        <v>1.033720043987132</v>
       </c>
       <c r="E24">
-        <v>1.0126045132996</v>
+        <v>1.039283672601232</v>
       </c>
       <c r="F24">
-        <v>1.018072805216789</v>
+        <v>1.050815942283589</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04540256477994</v>
+        <v>1.038011670982877</v>
       </c>
       <c r="J24">
-        <v>1.024797337196327</v>
+        <v>1.035369079159467</v>
       </c>
       <c r="K24">
-        <v>1.030416157001825</v>
+        <v>1.037098081028322</v>
       </c>
       <c r="L24">
-        <v>1.026413837091239</v>
+        <v>1.042642314976681</v>
       </c>
       <c r="M24">
-        <v>1.031789805326318</v>
+        <v>1.054135102509779</v>
       </c>
       <c r="N24">
-        <v>1.012181337083972</v>
+        <v>1.015787943460013</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003880942465605</v>
+        <v>1.03046140995661</v>
       </c>
       <c r="D25">
-        <v>1.021411088276726</v>
+        <v>1.034694015292553</v>
       </c>
       <c r="E25">
-        <v>1.018343929944759</v>
+        <v>1.040524309094639</v>
       </c>
       <c r="F25">
-        <v>1.025042978391068</v>
+        <v>1.052341559844892</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047570625331207</v>
+        <v>1.038341926187996</v>
       </c>
       <c r="J25">
-        <v>1.028278399602237</v>
+        <v>1.036086548593023</v>
       </c>
       <c r="K25">
-        <v>1.033685874445988</v>
+        <v>1.037750024433113</v>
       </c>
       <c r="L25">
-        <v>1.030664000915374</v>
+        <v>1.043562064861953</v>
       </c>
       <c r="M25">
-        <v>1.037264586397897</v>
+        <v>1.055342995297056</v>
       </c>
       <c r="N25">
-        <v>1.013341773241906</v>
+        <v>1.016026478004553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031523182197974</v>
+        <v>1.009039796857646</v>
       </c>
       <c r="D2">
-        <v>1.035472440590324</v>
+        <v>1.025073106789212</v>
       </c>
       <c r="E2">
-        <v>1.041517427706352</v>
+        <v>1.022791389384568</v>
       </c>
       <c r="F2">
-        <v>1.053563000024011</v>
+        <v>1.030441715566626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038601456581881</v>
+        <v>1.049208362441658</v>
       </c>
       <c r="J2">
-        <v>1.036658439809023</v>
+        <v>1.030953450443689</v>
       </c>
       <c r="K2">
-        <v>1.038268947063911</v>
+        <v>1.036193844445985</v>
       </c>
       <c r="L2">
-        <v>1.044296718287106</v>
+        <v>1.033942079183476</v>
       </c>
       <c r="M2">
-        <v>1.056308623882265</v>
+        <v>1.041492634119038</v>
       </c>
       <c r="N2">
-        <v>1.016216545043877</v>
+        <v>1.014233488958624</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032295380322781</v>
+        <v>1.012689511086597</v>
       </c>
       <c r="D3">
-        <v>1.0360385339644</v>
+        <v>1.027669126230824</v>
       </c>
       <c r="E3">
-        <v>1.042240567107563</v>
+        <v>1.025949870163332</v>
       </c>
       <c r="F3">
-        <v>1.054452511640044</v>
+        <v>1.034274752919293</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038787632638374</v>
+        <v>1.05034661030522</v>
       </c>
       <c r="J3">
-        <v>1.037073451301886</v>
+        <v>1.032840124782228</v>
       </c>
       <c r="K3">
-        <v>1.03864508943831</v>
+        <v>1.037959804782118</v>
       </c>
       <c r="L3">
-        <v>1.044830731313526</v>
+        <v>1.036261144381166</v>
       </c>
       <c r="M3">
-        <v>1.057011009207023</v>
+        <v>1.04448708862458</v>
       </c>
       <c r="N3">
-        <v>1.016354433564979</v>
+        <v>1.014862354656548</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032795615208217</v>
+        <v>1.015008738951663</v>
       </c>
       <c r="D4">
-        <v>1.036405233761601</v>
+        <v>1.029320954668314</v>
       </c>
       <c r="E4">
-        <v>1.042709422357419</v>
+        <v>1.027962353344517</v>
       </c>
       <c r="F4">
-        <v>1.055029293483402</v>
+        <v>1.036716693323498</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038907047252096</v>
+        <v>1.051060250814329</v>
       </c>
       <c r="J4">
-        <v>1.03734187632666</v>
+        <v>1.034036158604654</v>
       </c>
       <c r="K4">
-        <v>1.03888817409664</v>
+        <v>1.03907792635025</v>
       </c>
       <c r="L4">
-        <v>1.045176537192372</v>
+        <v>1.037734616023229</v>
       </c>
       <c r="M4">
-        <v>1.05746606878048</v>
+        <v>1.04639129044719</v>
       </c>
       <c r="N4">
-        <v>1.016443599766802</v>
+        <v>1.015260983852679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033006048847242</v>
+        <v>1.015973888179787</v>
       </c>
       <c r="D5">
-        <v>1.036559488173092</v>
+        <v>1.030008849344063</v>
       </c>
       <c r="E5">
-        <v>1.042906751182873</v>
+        <v>1.028801125328032</v>
       </c>
       <c r="F5">
-        <v>1.05527205978837</v>
+        <v>1.037734390500839</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03895699603791</v>
+        <v>1.051354881043813</v>
       </c>
       <c r="J5">
-        <v>1.037454693362121</v>
+        <v>1.03453317895496</v>
       </c>
       <c r="K5">
-        <v>1.038990292682743</v>
+        <v>1.039542228343346</v>
       </c>
       <c r="L5">
-        <v>1.045321975621784</v>
+        <v>1.038347734458401</v>
       </c>
       <c r="M5">
-        <v>1.057657510328673</v>
+        <v>1.047184032238093</v>
       </c>
       <c r="N5">
-        <v>1.01648107116505</v>
+        <v>1.015426627775781</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033041389438484</v>
+        <v>1.016135371397945</v>
       </c>
       <c r="D6">
-        <v>1.036585393615662</v>
+        <v>1.03012397132325</v>
       </c>
       <c r="E6">
-        <v>1.042939896527572</v>
+        <v>1.028941538096391</v>
       </c>
       <c r="F6">
-        <v>1.055312838101834</v>
+        <v>1.037904752476137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038965367791209</v>
+        <v>1.051404037672413</v>
       </c>
       <c r="J6">
-        <v>1.03747363411023</v>
+        <v>1.034616295101421</v>
       </c>
       <c r="K6">
-        <v>1.03900743445408</v>
+        <v>1.039619852719055</v>
       </c>
       <c r="L6">
-        <v>1.045346398944821</v>
+        <v>1.03845031322799</v>
       </c>
       <c r="M6">
-        <v>1.057689662042358</v>
+        <v>1.047316686639119</v>
       </c>
       <c r="N6">
-        <v>1.016487361939269</v>
+        <v>1.015454327631678</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032798426505043</v>
+        <v>1.015021673664086</v>
       </c>
       <c r="D7">
-        <v>1.036407294550269</v>
+        <v>1.029330171813894</v>
       </c>
       <c r="E7">
-        <v>1.042712058204655</v>
+        <v>1.02797358937451</v>
       </c>
       <c r="F7">
-        <v>1.05503253621267</v>
+        <v>1.036730326438603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038907715665857</v>
+        <v>1.051064208712313</v>
       </c>
       <c r="J7">
-        <v>1.037343383908351</v>
+        <v>1.03404282239535</v>
       </c>
       <c r="K7">
-        <v>1.038889538903365</v>
+        <v>1.039084152830099</v>
       </c>
       <c r="L7">
-        <v>1.045178480307477</v>
+        <v>1.037742833198393</v>
       </c>
       <c r="M7">
-        <v>1.057468626305555</v>
+        <v>1.046401913412165</v>
       </c>
       <c r="N7">
-        <v>1.016444100517326</v>
+        <v>1.015263204758958</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031784030832346</v>
+        <v>1.010282189863511</v>
       </c>
       <c r="D8">
-        <v>1.035663670670884</v>
+        <v>1.02595633462969</v>
       </c>
       <c r="E8">
-        <v>1.041761621149111</v>
+        <v>1.023865414833481</v>
       </c>
       <c r="F8">
-        <v>1.053863363202445</v>
+        <v>1.031745204351206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03866459332563</v>
+        <v>1.049597834247945</v>
       </c>
       <c r="J8">
-        <v>1.036798717964893</v>
+        <v>1.03159627462898</v>
       </c>
       <c r="K8">
-        <v>1.038396128442641</v>
+        <v>1.036795824813334</v>
       </c>
       <c r="L8">
-        <v>1.044477134976894</v>
+        <v>1.03473153358654</v>
       </c>
       <c r="M8">
-        <v>1.056545879338463</v>
+        <v>1.042511673409823</v>
       </c>
       <c r="N8">
-        <v>1.016263156622754</v>
+        <v>1.014447760802522</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030000990274164</v>
+        <v>1.001592292566813</v>
       </c>
       <c r="D9">
-        <v>1.0343564512138</v>
+        <v>1.019789386129218</v>
       </c>
       <c r="E9">
-        <v>1.040094081340704</v>
+        <v>1.016377033326112</v>
       </c>
       <c r="F9">
-        <v>1.051812476763757</v>
+        <v>1.022654738453462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038228147867104</v>
+        <v>1.046834226886319</v>
       </c>
       <c r="J9">
-        <v>1.035838121340164</v>
+        <v>1.027088947906174</v>
       </c>
       <c r="K9">
-        <v>1.037524399796866</v>
+        <v>1.03256935103841</v>
       </c>
       <c r="L9">
-        <v>1.043243361284975</v>
+        <v>1.029209877325287</v>
       </c>
       <c r="M9">
-        <v>1.054924320573334</v>
+        <v>1.035390648551985</v>
       </c>
       <c r="N9">
-        <v>1.015943894657711</v>
+        <v>1.012945262015521</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028815400006235</v>
+        <v>0.9955513950238392</v>
       </c>
       <c r="D10">
-        <v>1.033487192624611</v>
+        <v>1.015517816768105</v>
       </c>
       <c r="E10">
-        <v>1.03898737911528</v>
+        <v>1.011202848800251</v>
       </c>
       <c r="F10">
-        <v>1.050451625977938</v>
+        <v>1.016369940425284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037931834137077</v>
+        <v>1.04486451821037</v>
       </c>
       <c r="J10">
-        <v>1.035197244562402</v>
+        <v>1.02394263223177</v>
       </c>
       <c r="K10">
-        <v>1.036941793253258</v>
+        <v>1.029612432903561</v>
       </c>
       <c r="L10">
-        <v>1.042422337981934</v>
+        <v>1.025372736056059</v>
       </c>
       <c r="M10">
-        <v>1.053846372954437</v>
+        <v>1.030449789727055</v>
       </c>
       <c r="N10">
-        <v>1.015730800878566</v>
+        <v>1.011896418684589</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028302785363743</v>
+        <v>0.9928720915938015</v>
       </c>
       <c r="D11">
-        <v>1.03311134401623</v>
+        <v>1.013627530018267</v>
       </c>
       <c r="E11">
-        <v>1.038509373047754</v>
+        <v>1.008915822770057</v>
       </c>
       <c r="F11">
-        <v>1.049863908247345</v>
+        <v>1.013590872884115</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037802268751735</v>
+        <v>1.043979868557356</v>
       </c>
       <c r="J11">
-        <v>1.034919640301177</v>
+        <v>1.022544436005102</v>
       </c>
       <c r="K11">
-        <v>1.03668918943804</v>
+        <v>1.028296947060811</v>
       </c>
       <c r="L11">
-        <v>1.042067198800198</v>
+        <v>1.023671535904744</v>
       </c>
       <c r="M11">
-        <v>1.053380365597902</v>
+        <v>1.028260957281478</v>
       </c>
       <c r="N11">
-        <v>1.01563847474976</v>
+        <v>1.011430335028589</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028112492557862</v>
+        <v>0.991866896262551</v>
       </c>
       <c r="D12">
-        <v>1.032971821035224</v>
+        <v>1.012919045149937</v>
       </c>
       <c r="E12">
-        <v>1.038332003080292</v>
+        <v>1.008059016193291</v>
       </c>
       <c r="F12">
-        <v>1.049645837144162</v>
+        <v>1.012549532548465</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037753954008915</v>
+        <v>1.043646359143751</v>
       </c>
       <c r="J12">
-        <v>1.034816511932354</v>
+        <v>1.02201949719595</v>
       </c>
       <c r="K12">
-        <v>1.036595312654923</v>
+        <v>1.027802852608496</v>
       </c>
       <c r="L12">
-        <v>1.041935341318129</v>
+        <v>1.023033429912345</v>
       </c>
       <c r="M12">
-        <v>1.053207384386017</v>
+        <v>1.027440189046389</v>
       </c>
       <c r="N12">
-        <v>1.015604172894942</v>
+        <v>1.011255352385579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028153305772589</v>
+        <v>0.9920829730595785</v>
       </c>
       <c r="D13">
-        <v>1.033001745360237</v>
+        <v>1.013071308793435</v>
       </c>
       <c r="E13">
-        <v>1.038370041237835</v>
+        <v>1.008243139707632</v>
       </c>
       <c r="F13">
-        <v>1.049692603538865</v>
+        <v>1.012773320741882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037764326196659</v>
+        <v>1.043718122630352</v>
       </c>
       <c r="J13">
-        <v>1.034838633920582</v>
+        <v>1.022132354566591</v>
       </c>
       <c r="K13">
-        <v>1.036615451716479</v>
+        <v>1.027909087955594</v>
       </c>
       <c r="L13">
-        <v>1.041963622590598</v>
+        <v>1.023170590598861</v>
       </c>
       <c r="M13">
-        <v>1.053244484224776</v>
+        <v>1.027616602053407</v>
       </c>
       <c r="N13">
-        <v>1.015611531105709</v>
+        <v>1.011292971961777</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0282870533424</v>
+        <v>0.9927892080770504</v>
       </c>
       <c r="D14">
-        <v>1.033099809280147</v>
+        <v>1.013569097361092</v>
       </c>
       <c r="E14">
-        <v>1.038494707850992</v>
+        <v>1.008845149686846</v>
       </c>
       <c r="F14">
-        <v>1.049845877647784</v>
+        <v>1.013504982805721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037798278878205</v>
+        <v>1.043952401591998</v>
       </c>
       <c r="J14">
-        <v>1.034911115951773</v>
+        <v>1.022501159585982</v>
       </c>
       <c r="K14">
-        <v>1.036681430535302</v>
+        <v>1.028256217655269</v>
       </c>
       <c r="L14">
-        <v>1.042056298247477</v>
+        <v>1.02361891787513</v>
       </c>
       <c r="M14">
-        <v>1.053366064567171</v>
+        <v>1.028193272068607</v>
       </c>
       <c r="N14">
-        <v>1.015635639504598</v>
+        <v>1.011415909217146</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028369474941195</v>
+        <v>0.9932230065646401</v>
       </c>
       <c r="D15">
-        <v>1.033160240875052</v>
+        <v>1.013874952791521</v>
       </c>
       <c r="E15">
-        <v>1.038571543343972</v>
+        <v>1.009215090699329</v>
       </c>
       <c r="F15">
-        <v>1.049940345880041</v>
+        <v>1.013954569609542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037819173307809</v>
+        <v>1.044096093478804</v>
       </c>
       <c r="J15">
-        <v>1.034955772735394</v>
+        <v>1.022727645951252</v>
       </c>
       <c r="K15">
-        <v>1.036722075878105</v>
+        <v>1.028469365833178</v>
       </c>
       <c r="L15">
-        <v>1.042113406380322</v>
+        <v>1.023894317514639</v>
       </c>
       <c r="M15">
-        <v>1.053440989478273</v>
+        <v>1.028547542359661</v>
       </c>
       <c r="N15">
-        <v>1.015650492462411</v>
+        <v>1.01149140660927</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028849436590827</v>
+        <v>0.995727836020609</v>
       </c>
       <c r="D16">
-        <v>1.033512148125295</v>
+        <v>1.015642391983953</v>
       </c>
       <c r="E16">
-        <v>1.039019128325511</v>
+        <v>1.011353624204688</v>
       </c>
       <c r="F16">
-        <v>1.050490663487223</v>
+        <v>1.016553128409848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037940406499394</v>
+        <v>1.044922548672466</v>
       </c>
       <c r="J16">
-        <v>1.035215666238569</v>
+        <v>1.024034653982205</v>
       </c>
       <c r="K16">
-        <v>1.036958550866707</v>
+        <v>1.029698981604088</v>
       </c>
       <c r="L16">
-        <v>1.042445915312176</v>
+        <v>1.025484782543244</v>
       </c>
       <c r="M16">
-        <v>1.053877316308328</v>
+        <v>1.030593987823607</v>
       </c>
       <c r="N16">
-        <v>1.01573692713778</v>
+        <v>1.011927094234285</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02915070696475</v>
+        <v>0.9972817348806301</v>
       </c>
       <c r="D17">
-        <v>1.033733037781615</v>
+        <v>1.016740007448899</v>
       </c>
       <c r="E17">
-        <v>1.039300210120236</v>
+        <v>1.012682390256415</v>
       </c>
       <c r="F17">
-        <v>1.0508362768824</v>
+        <v>1.018167409244223</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038016116249614</v>
+        <v>1.045432364206873</v>
       </c>
       <c r="J17">
-        <v>1.03537866460556</v>
+        <v>1.024844774273872</v>
       </c>
       <c r="K17">
-        <v>1.037106797589706</v>
+        <v>1.030460754789707</v>
       </c>
       <c r="L17">
-        <v>1.042654589343767</v>
+        <v>1.026471646225361</v>
       </c>
       <c r="M17">
-        <v>1.054151214976426</v>
+        <v>1.031864223726131</v>
       </c>
       <c r="N17">
-        <v>1.015791130895387</v>
+        <v>1.012197150464478</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029326505480147</v>
+        <v>0.9981819962611738</v>
       </c>
       <c r="D18">
-        <v>1.033861931545457</v>
+        <v>1.017376320743389</v>
       </c>
       <c r="E18">
-        <v>1.039464276343355</v>
+        <v>1.013452965238653</v>
       </c>
       <c r="F18">
-        <v>1.051038015739451</v>
+        <v>1.019103452099229</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038060154877373</v>
+        <v>1.045726677204797</v>
       </c>
       <c r="J18">
-        <v>1.035473729022516</v>
+        <v>1.025313861964367</v>
       </c>
       <c r="K18">
-        <v>1.037193235338701</v>
+        <v>1.030901708781311</v>
       </c>
       <c r="L18">
-        <v>1.04277634090763</v>
+        <v>1.027043454310687</v>
       </c>
       <c r="M18">
-        <v>1.054311047780813</v>
+        <v>1.032600385869221</v>
       </c>
       <c r="N18">
-        <v>1.015822741681355</v>
+        <v>1.012353523534608</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029386460489338</v>
+        <v>0.9984879399907887</v>
       </c>
       <c r="D19">
-        <v>1.033905889846543</v>
+        <v>1.017592631422592</v>
       </c>
       <c r="E19">
-        <v>1.039520238295248</v>
+        <v>1.013714961948315</v>
       </c>
       <c r="F19">
-        <v>1.051106828584992</v>
+        <v>1.019421690687156</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038075150262034</v>
+        <v>1.045826516499881</v>
       </c>
       <c r="J19">
-        <v>1.03550614183493</v>
+        <v>1.025473230995251</v>
       </c>
       <c r="K19">
-        <v>1.037222702900446</v>
+        <v>1.031051495705728</v>
       </c>
       <c r="L19">
-        <v>1.042817861024634</v>
+        <v>1.027237786481263</v>
       </c>
       <c r="M19">
-        <v>1.054365558852043</v>
+        <v>1.032850602605285</v>
       </c>
       <c r="N19">
-        <v>1.015833519221199</v>
+        <v>1.012406650259021</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029118375981761</v>
+        <v>0.9971156504107183</v>
       </c>
       <c r="D20">
-        <v>1.033709332961406</v>
+        <v>1.016622649522311</v>
       </c>
       <c r="E20">
-        <v>1.03927004069437</v>
+        <v>1.012540290935682</v>
       </c>
       <c r="F20">
-        <v>1.050799180469844</v>
+        <v>1.017994788028477</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038008005880291</v>
+        <v>1.045377982683239</v>
       </c>
       <c r="J20">
-        <v>1.035361177424881</v>
+        <v>1.02475821347639</v>
       </c>
       <c r="K20">
-        <v>1.037090895425682</v>
+        <v>1.030379374197486</v>
       </c>
       <c r="L20">
-        <v>1.042632196908762</v>
+        <v>1.026366161169413</v>
       </c>
       <c r="M20">
-        <v>1.05412182074529</v>
+        <v>1.031728432454994</v>
       </c>
       <c r="N20">
-        <v>1.015785315895101</v>
+        <v>1.012168295007999</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028247664824559</v>
+        <v>0.992581518651503</v>
       </c>
       <c r="D21">
-        <v>1.033070929568029</v>
+        <v>1.013422688253074</v>
       </c>
       <c r="E21">
-        <v>1.038457991579378</v>
+        <v>1.00866807690472</v>
       </c>
       <c r="F21">
-        <v>1.049800735782151</v>
+        <v>1.013289780295225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037788285853398</v>
+        <v>1.043883549017939</v>
       </c>
       <c r="J21">
-        <v>1.034889772170307</v>
+        <v>1.022392711616154</v>
       </c>
       <c r="K21">
-        <v>1.036662002745455</v>
+        <v>1.028154149017537</v>
       </c>
       <c r="L21">
-        <v>1.042029005989977</v>
+        <v>1.023487069944419</v>
       </c>
       <c r="M21">
-        <v>1.053330259006526</v>
+        <v>1.02802367336006</v>
       </c>
       <c r="N21">
-        <v>1.015628540394176</v>
+        <v>1.011379759113334</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027700880991938</v>
+        <v>0.989672739710489</v>
       </c>
       <c r="D22">
-        <v>1.032670026519483</v>
+        <v>1.011373889542285</v>
       </c>
       <c r="E22">
-        <v>1.037948482499082</v>
+        <v>1.006191043722824</v>
       </c>
       <c r="F22">
-        <v>1.049174325581329</v>
+        <v>1.010278859026594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037649049607318</v>
+        <v>1.0429154494285</v>
       </c>
       <c r="J22">
-        <v>1.034593301856929</v>
+        <v>1.020872995273498</v>
       </c>
       <c r="K22">
-        <v>1.036392061053289</v>
+        <v>1.026723345354024</v>
       </c>
       <c r="L22">
-        <v>1.041650086593313</v>
+        <v>1.021640844490394</v>
       </c>
       <c r="M22">
-        <v>1.052833237070878</v>
+        <v>1.025649403329722</v>
       </c>
       <c r="N22">
-        <v>1.015529924399315</v>
+        <v>1.010873187411824</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027990677620708</v>
+        <v>0.9912203868181253</v>
       </c>
       <c r="D23">
-        <v>1.032882506068725</v>
+        <v>1.012463572905268</v>
       </c>
       <c r="E23">
-        <v>1.03821848191305</v>
+        <v>1.007508293413849</v>
       </c>
       <c r="F23">
-        <v>1.049506268657707</v>
+        <v>1.011880139979886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037722964368406</v>
+        <v>1.04343140689153</v>
       </c>
       <c r="J23">
-        <v>1.034750473446503</v>
+        <v>1.021681771176546</v>
       </c>
       <c r="K23">
-        <v>1.036535188343518</v>
+        <v>1.027484913277781</v>
       </c>
       <c r="L23">
-        <v>1.04185092707828</v>
+        <v>1.022623062436934</v>
       </c>
       <c r="M23">
-        <v>1.053096654219923</v>
+        <v>1.026912418549689</v>
       </c>
       <c r="N23">
-        <v>1.01558220671725</v>
+        <v>1.011142776386853</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029132984737207</v>
+        <v>0.9971907156580986</v>
       </c>
       <c r="D24">
-        <v>1.033720043987132</v>
+        <v>1.016675690575525</v>
       </c>
       <c r="E24">
-        <v>1.039283672601232</v>
+        <v>1.012604513299601</v>
       </c>
       <c r="F24">
-        <v>1.050815942283589</v>
+        <v>1.01807280521679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038011670982877</v>
+        <v>1.04540256477994</v>
       </c>
       <c r="J24">
-        <v>1.035369079159467</v>
+        <v>1.024797337196327</v>
       </c>
       <c r="K24">
-        <v>1.037098081028322</v>
+        <v>1.030416157001825</v>
       </c>
       <c r="L24">
-        <v>1.042642314976681</v>
+        <v>1.02641383709124</v>
       </c>
       <c r="M24">
-        <v>1.054135102509779</v>
+        <v>1.031789805326319</v>
       </c>
       <c r="N24">
-        <v>1.015787943460013</v>
+        <v>1.012181337083972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03046140995661</v>
+        <v>1.003880942465605</v>
       </c>
       <c r="D25">
-        <v>1.034694015292553</v>
+        <v>1.021411088276726</v>
       </c>
       <c r="E25">
-        <v>1.040524309094639</v>
+        <v>1.018343929944759</v>
       </c>
       <c r="F25">
-        <v>1.052341559844892</v>
+        <v>1.025042978391069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038341926187996</v>
+        <v>1.047570625331207</v>
       </c>
       <c r="J25">
-        <v>1.036086548593023</v>
+        <v>1.028278399602237</v>
       </c>
       <c r="K25">
-        <v>1.037750024433113</v>
+        <v>1.033685874445987</v>
       </c>
       <c r="L25">
-        <v>1.043562064861953</v>
+        <v>1.030664000915374</v>
       </c>
       <c r="M25">
-        <v>1.055342995297056</v>
+        <v>1.037264586397898</v>
       </c>
       <c r="N25">
-        <v>1.016026478004553</v>
+        <v>1.013341773241906</v>
       </c>
     </row>
   </sheetData>
